--- a/Doc/B65_-_Hiver_2017_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
+++ b/Doc/B65_-_Hiver_2017_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\CVM\2014_2_Automne\B65\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\project_dec_rpg\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
     <definedName name="TempsEstime">'Sprint 1 - Planification'!$X$8:$X$90</definedName>
     <definedName name="ValeurSprint">'Sprint 1 - Planification'!$AA$8:$AA$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="104">
   <si>
     <t>No</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Rédaction du document de planification</t>
-  </si>
-  <si>
-    <t>Nom du projet super cool que vous faites!</t>
   </si>
   <si>
     <t>Prédéces.</t>
@@ -384,11 +381,98 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>Familiarisation avec les librairies isometriques</t>
+  </si>
+  <si>
+    <t>Creation d'une map basique en isometrique :</t>
+  </si>
+  <si>
+    <t>creation d'un personnage deplacable sur la map</t>
+  </si>
+  <si>
+    <t>creation d'une matrice de map basiques</t>
+  </si>
+  <si>
+    <t>Connection des differentes maps pour se deplacer entre les maps</t>
+  </si>
+  <si>
+    <t>Creation des quatres combattants</t>
+  </si>
+  <si>
+    <t>affichage des HP/MP pour chacun des combatants</t>
+  </si>
+  <si>
+    <t>Creation des classes de combatants</t>
+  </si>
+  <si>
+    <t>Creation des items de base</t>
+  </si>
+  <si>
+    <t>Creation + affichage d'un inventaire</t>
+  </si>
+  <si>
+    <t>affichage des stats des combatants</t>
+  </si>
+  <si>
+    <t>equiper ses combatants:</t>
+  </si>
+  <si>
+    <t>rentrer en combat aléatoirement a chaque deplacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage des combattants </t>
+  </si>
+  <si>
+    <t>Affichage de l'ordre de combat</t>
+  </si>
+  <si>
+    <t>permettre aux combattants de finir le tour</t>
+  </si>
+  <si>
+    <t>permettre aux combattants de se deplacer</t>
+  </si>
+  <si>
+    <t>permettre aux combatants d'effectuer des attaques normales</t>
+  </si>
+  <si>
+    <t>permettre aux combatants de lancer des sorts</t>
+  </si>
+  <si>
+    <t>permettre aux combatants d'utiliser des items en combat</t>
+  </si>
+  <si>
+    <t>gestion de la morts des combattants</t>
+  </si>
+  <si>
+    <t>recuperation de l'experience / items a la fin du combat</t>
+  </si>
+  <si>
+    <t>sauvegarder le jeu</t>
+  </si>
+  <si>
+    <t>charger une parte sauvegarder</t>
+  </si>
+  <si>
+    <t>utilisation de la souris pour selectionner des elements</t>
+  </si>
+  <si>
+    <t>implantation d'un système de quetes</t>
+  </si>
+  <si>
+    <t>RPG</t>
+  </si>
+  <si>
+    <t>creation d'une IA pour les ennemis</t>
+  </si>
+  <si>
+    <t>creation d'une mini-map</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -2520,7 +2604,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -2656,14 +2740,19 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-321D-4F01-8D47-9F72A75121EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2725,18 +2814,23 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-321D-4F01-8D47-9F72A75121EC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2936,7 +3030,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -3068,17 +3162,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9BE-4151-9D2D-6691DA277A17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3136,7 +3235,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3147,6 +3246,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9BE-4151-9D2D-6691DA277A17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3346,7 +3450,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -3502,6 +3606,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CE95-4A7B-A8F3-201024AB2CB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3530,6 +3639,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CE95-4A7B-A8F3-201024AB2CB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3552,14 +3666,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CE95-4A7B-A8F3-201024AB2CB7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -3604,6 +3723,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-CE95-4A7B-A8F3-201024AB2CB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3632,6 +3756,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-CE95-4A7B-A8F3-201024AB2CB7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3654,14 +3783,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CE95-4A7B-A8F3-201024AB2CB7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3751,7 +3885,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -3894,6 +4028,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-89F2-4272-BFF3-E3575197072F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3922,6 +4061,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-89F2-4272-BFF3-E3575197072F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3950,6 +4094,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-89F2-4272-BFF3-E3575197072F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3975,17 +4124,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-89F2-4272-BFF3-E3575197072F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -4030,6 +4184,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-89F2-4272-BFF3-E3575197072F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4058,6 +4217,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-89F2-4272-BFF3-E3575197072F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4083,14 +4247,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-89F2-4272-BFF3-E3575197072F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6835,8 +7004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ90"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,7 +7026,7 @@
     <row r="1" spans="2:31" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="122" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
@@ -6868,14 +7037,14 @@
     </row>
     <row r="3" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="123"/>
       <c r="G3" s="123"/>
@@ -6892,7 +7061,7 @@
     </row>
     <row r="5" spans="2:31" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -6901,7 +7070,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="60" t="str">
         <f>IF(L44=0,CONCATENATE(AE12, " totalisant ", AE15, " de travail estimé."),CONCATENATE("Attention, il reste " &amp; L45 &amp; " à remplir."))</f>
-        <v>4 tâches ont été définies totalisant 12 heures et 30 minutes de travail estimé.</v>
+        <v>32 tâches ont été définies totalisant 88 heures de travail estimé.</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6910,25 +7079,25 @@
         <v>0</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="66" t="s">
+      <c r="H7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="T7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
@@ -6939,10 +7108,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -6974,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S8" s="23">
         <v>233</v>
@@ -6984,10 +7153,10 @@
       </c>
       <c r="U8" s="3">
         <f>MAX(B8:B42)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W8" s="3">
         <v>1</v>
@@ -7010,11 +7179,11 @@
       </c>
       <c r="AC8" s="4">
         <f>COUNTA(C8:C43)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="AD8" s="9">
         <f>SUM(G8:G43)</f>
-        <v>0.5208333333333337</v>
+        <v>3.6666666666666674</v>
       </c>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.25">
@@ -7029,13 +7198,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
       </c>
       <c r="G9" s="31">
-        <v>0.25</v>
+        <v>0.20833333333333301</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>1</v>
@@ -7061,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S9" s="23">
         <v>238</v>
@@ -7070,7 +7239,7 @@
         <v>2</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W9" s="3">
         <v>2</v>
@@ -7089,7 +7258,7 @@
       </c>
       <c r="AD9" s="10">
         <f>AD8</f>
-        <v>0.5208333333333337</v>
+        <v>3.6666666666666674</v>
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
@@ -7104,7 +7273,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="18">
         <v>2</v>
@@ -7136,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S10" s="23">
         <v>243</v>
@@ -7161,7 +7330,7 @@
       </c>
       <c r="AD10" s="63">
         <f>DAY(AD8)*24+HOUR(AD8)</f>
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
@@ -7176,7 +7345,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="16">
         <v>2</v>
@@ -7220,20 +7389,32 @@
       </c>
       <c r="AD11" s="4">
         <f>MINUTE(AD8)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="44">
         <f t="shared" ref="B12:B42" si="5">IF(LEN(C12)&lt;&gt;0,IF(OR(LEN(B11)=0,B11="^"),"^",B11+1),"")</f>
-        <v/>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="42"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="19">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="18">
+        <v>2</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L12" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7255,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S12" s="23">
         <v>212</v>
@@ -7270,28 +7451,40 @@
         <v>0.2</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD12" s="4">
         <f>AC8</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="AE12" s="4" t="str">
         <f>AD12 &amp; " " &amp; AC12 &amp; IF(AD12 &gt; 1, "s ont été définies", " a été définie")</f>
-        <v>4 tâches ont été définies</v>
+        <v>32 tâches ont été définies</v>
       </c>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="str">
+      <c r="B13" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="41"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="16">
+        <v>4</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="16">
+        <v>2</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L13" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7313,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S13" s="23">
         <v>222</v>
@@ -7328,28 +7521,40 @@
         <v>0.25</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD13" s="4">
         <f>AD10</f>
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AE13" s="4" t="str">
         <f>AD13 &amp; " " &amp; AC13 &amp; IF(AD13 &gt; 1, "s", "")</f>
-        <v>12 heures</v>
+        <v>88 heures</v>
       </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="44" t="str">
+      <c r="B14" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="42"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="19">
+        <v>5</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="18">
+        <v>3</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L14" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7371,7 +7576,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S14" s="23">
         <v>232</v>
@@ -7386,28 +7591,40 @@
         <v>0.3</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD14" s="4">
         <f>AD11</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="4" t="str">
         <f>AD14 &amp; " " &amp; AC14 &amp; IF(AD14 &gt; 1, "s", "")</f>
-        <v>30 minutes</v>
+        <v>0 minute</v>
       </c>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="str">
+      <c r="B15" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="41"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="16">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L15" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7439,20 +7656,32 @@
       </c>
       <c r="AE15" s="4" t="str">
         <f>IF(AD13&gt;0,IF(AD14&gt;0,AE13&amp;" et "&amp;AE14,AE13),AE14)</f>
-        <v>12 heures et 30 minutes</v>
+        <v>88 heures</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="str">
+      <c r="B16" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="42"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="18">
+        <v>5</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="18">
+        <v>3</v>
+      </c>
+      <c r="G16" s="32">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L16" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7474,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S16" s="23">
         <v>58</v>
@@ -7490,16 +7719,28 @@
       </c>
     </row>
     <row r="17" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="str">
+      <c r="B17" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="41"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="16">
+        <v>4</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L17" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7521,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S17" s="23">
         <v>82</v>
@@ -7540,15 +7781,15 @@
       </c>
       <c r="AD17" s="4">
         <f t="array" ref="AD17">SUM(($H$8:$H$42=$AC17)*$G$8:$G$42)</f>
-        <v>0.5208333333333337</v>
+        <v>0.47916666666666663</v>
       </c>
       <c r="AE17" s="4">
         <f>AD17 * 24*60</f>
-        <v>750.00000000000057</v>
+        <v>690</v>
       </c>
       <c r="AF17" s="4">
         <f>DAY(AD17)*24+HOUR(AD17)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG17" s="4">
         <f>MINUTE(AD17)</f>
@@ -7556,7 +7797,7 @@
       </c>
       <c r="AH17" s="4" t="str">
         <f>AF17&amp;"h"&amp;TEXT(AG17,"00")</f>
-        <v>12h30</v>
+        <v>11h30</v>
       </c>
       <c r="AJ17" s="4">
         <f>COUNTIF($H$8:$H$42,AC17)</f>
@@ -7564,16 +7805,28 @@
       </c>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="str">
+      <c r="B18" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="18">
+        <v>5</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="32">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L18" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7595,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S18" s="23">
         <v>106</v>
@@ -7614,40 +7867,52 @@
       </c>
       <c r="AD18" s="4">
         <f t="array" ref="AD18">SUM(($H$8:$H$42=$AC18)*$G$8:$G$42)</f>
-        <v>0</v>
+        <v>1.2291666666666672</v>
       </c>
       <c r="AE18" s="4">
         <f>AD18 * 24*60</f>
-        <v>0</v>
+        <v>1770.0000000000009</v>
       </c>
       <c r="AF18" s="4">
         <f t="shared" ref="AF18:AF19" si="6">DAY(AD18)*24+HOUR(AD18)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" ref="AG18:AG19" si="7">MINUTE(AD18)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH18" s="4" t="str">
         <f t="shared" ref="AH18:AH19" si="8">AF18&amp;"h"&amp;TEXT(AG18,"00")</f>
-        <v>0h00</v>
+        <v>29h30</v>
       </c>
       <c r="AJ18" s="4">
         <f>COUNTIF($H$8:$H$42,AC18)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="str">
+      <c r="B19" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="41"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="16">
+        <v>5</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L19" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7682,15 +7947,15 @@
       </c>
       <c r="AD19" s="4">
         <f t="array" ref="AD19">SUM(($H$8:$H$42=$AC19)*$G$8:$G$42)</f>
-        <v>0</v>
+        <v>1.9583333333333335</v>
       </c>
       <c r="AE19" s="4">
         <f>AD19 * 24*60</f>
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="AF19" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="7"/>
@@ -7698,24 +7963,36 @@
       </c>
       <c r="AH19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>0h00</v>
+        <v>47h00</v>
       </c>
       <c r="AJ19" s="4">
         <f>COUNTIF($H$8:$H$42,AC19)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="str">
+      <c r="B20" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="42"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="19">
+        <v>6</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+      <c r="G20" s="32">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L20" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7748,16 +8025,28 @@
       </c>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="str">
+      <c r="B21" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="41"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="16">
+        <v>7</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L21" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7789,36 +8078,48 @@
       </c>
       <c r="AD21" s="4">
         <f>SUM(AD17:AD19)</f>
-        <v>0.5208333333333337</v>
+        <v>3.6666666666666674</v>
       </c>
       <c r="AE21" s="4">
         <f t="shared" ref="AE21" si="9">AD21 * 24*60</f>
-        <v>750.00000000000057</v>
+        <v>5280.0000000000009</v>
       </c>
       <c r="AF21" s="4">
         <f t="shared" ref="AF21" si="10">DAY(AD21)*24+HOUR(AD21)</f>
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" ref="AG21" si="11">MINUTE(AD21)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="4" t="str">
         <f t="shared" ref="AH21" si="12">AF21&amp;"h"&amp;TEXT(AG21,"00")</f>
-        <v>12h30</v>
+        <v>88h00</v>
       </c>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="str">
+      <c r="B22" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="18">
+        <v>7</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="18">
+        <v>2</v>
+      </c>
+      <c r="G22" s="32">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L22" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7850,16 +8151,28 @@
       </c>
     </row>
     <row r="23" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B23" s="45" t="str">
+      <c r="B23" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="41"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="16">
+        <v>7</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="16">
+        <v>2</v>
+      </c>
+      <c r="G23" s="31">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L23" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7891,16 +8204,28 @@
       </c>
     </row>
     <row r="24" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="str">
+      <c r="B24" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="19">
+        <v>8</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="18">
+        <v>2</v>
+      </c>
+      <c r="G24" s="32">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L24" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7932,16 +8257,28 @@
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B25" s="45" t="str">
+      <c r="B25" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="41"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="16">
+        <v>9</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="16">
+        <v>2</v>
+      </c>
+      <c r="G25" s="31">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L25" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7973,16 +8310,28 @@
       </c>
     </row>
     <row r="26" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B26" s="44" t="str">
+      <c r="B26" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="19">
+        <v>9</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="18">
+        <v>2</v>
+      </c>
+      <c r="G26" s="32">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L26" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8014,16 +8363,28 @@
       </c>
     </row>
     <row r="27" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B27" s="45" t="str">
+      <c r="B27" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="41"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="16">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="16">
+        <v>2</v>
+      </c>
+      <c r="G27" s="31">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L27" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8055,16 +8416,28 @@
       </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B28" s="44" t="str">
+      <c r="B28" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="18">
+        <v>10</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="18">
+        <v>2</v>
+      </c>
+      <c r="G28" s="32">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L28" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8096,16 +8469,28 @@
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B29" s="45" t="str">
+      <c r="B29" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="41"/>
+        <v>22</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="16">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="16">
+        <v>2</v>
+      </c>
+      <c r="G29" s="31">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L29" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8134,16 +8519,28 @@
       </c>
     </row>
     <row r="30" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="42"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="19">
+        <v>10</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="18">
+        <v>3</v>
+      </c>
+      <c r="G30" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L30" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8172,16 +8569,28 @@
       </c>
     </row>
     <row r="31" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B31" s="45" t="str">
+      <c r="B31" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="41"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="16">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="16">
+        <v>2</v>
+      </c>
+      <c r="G31" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L31" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8210,16 +8619,28 @@
       </c>
     </row>
     <row r="32" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B32" s="44" t="str">
+      <c r="B32" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="42"/>
+        <v>25</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="19">
+        <v>11</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="18">
+        <v>2</v>
+      </c>
+      <c r="G32" s="32">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L32" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8248,16 +8669,28 @@
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="45" t="str">
+      <c r="B33" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="16">
+        <v>11</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="31">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L33" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8286,16 +8719,28 @@
       </c>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="44" t="str">
+      <c r="B34" s="44">
         <f>IF(LEN(C34)&lt;&gt;0,IF(OR(LEN(B33)=0,B33="^"),"^",B33+1),"")</f>
-        <v/>
-      </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="18">
+        <v>12</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="18">
+        <v>3</v>
+      </c>
+      <c r="G34" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L34" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8324,16 +8769,28 @@
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="str">
+      <c r="B35" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="41"/>
+        <v>28</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="16">
+        <v>13</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="16">
+        <v>3</v>
+      </c>
+      <c r="G35" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L35" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8362,16 +8819,28 @@
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B36" s="44" t="str">
+      <c r="B36" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="42"/>
+        <v>29</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="19">
+        <v>12</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="18">
+        <v>3</v>
+      </c>
+      <c r="G36" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L36" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8400,16 +8869,28 @@
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="45" t="str">
+      <c r="B37" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="41"/>
+        <v>30</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="16">
+        <v>12</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="16">
+        <v>3</v>
+      </c>
+      <c r="G37" s="31">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L37" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8438,16 +8919,28 @@
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B38" s="44" t="str">
+      <c r="B38" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="42"/>
+        <v>31</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="19">
+        <v>12</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="18">
+        <v>3</v>
+      </c>
+      <c r="G38" s="32">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L38" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8476,16 +8969,28 @@
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="45" t="str">
+      <c r="B39" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="41"/>
+        <v>32</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="16">
+        <v>6</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="16">
+        <v>3</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L39" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9162,8 +9667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W56"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9184,7 +9689,7 @@
     <row r="2" spans="2:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="124" t="str">
         <f>'Sprint 1 - Planification'!B2:H2</f>
-        <v>Nom du projet super cool que vous faites!</v>
+        <v>RPG</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -9194,7 +9699,7 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="33"/>
@@ -9212,7 +9717,7 @@
     </row>
     <row r="5" spans="2:23" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -9220,7 +9725,7 @@
       <c r="F5" s="35"/>
       <c r="G5" s="64" t="str">
         <f>IF(K44=0,CONCATENATE("Ce sprint totalise ", U14, " de travail réalisé. ",U15),CONCATENATE("Attention, il reste ",K45," à remplir!"))</f>
-        <v>Attention, il reste 8 champs à remplir!</v>
+        <v xml:space="preserve">Ce sprint totalise 10 heures et 15 minutes de travail réalisé. </v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -9229,19 +9734,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="70" t="s">
         <v>24</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>25</v>
       </c>
       <c r="K7" s="7"/>
     </row>
@@ -9258,16 +9763,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H8)&lt;&gt;0,'Sprint 1 - Planification'!H8,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
+      <c r="E8" s="109">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F8" s="110">
+        <v>1</v>
+      </c>
       <c r="G8" s="111"/>
       <c r="K8" s="3" t="b">
         <f>AND($D8="Sprint 1",ISBLANK(E8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="b">
         <f>AND($D8="Sprint 1",ISBLANK(F8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="b">
         <f>AND($D8="Sprint 1",NOT(ISBLANK($F8)),$F8&lt;100%,ISBLANK($G8))</f>
@@ -9278,15 +9787,15 @@
       </c>
       <c r="Q8" s="61">
         <f t="array" ref="Q8">SUM(($D$8:$D$42=$P8)*$E$8:$E$42)</f>
-        <v>0</v>
+        <v>0.42708333333333326</v>
       </c>
       <c r="R8" s="62">
         <f>Q8*24*60</f>
-        <v>0</v>
+        <v>614.99999999999989</v>
       </c>
       <c r="T8" s="9">
         <f>SUM(E8:E42)</f>
-        <v>0</v>
+        <v>0.42708333333333326</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -9302,16 +9811,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H9)&lt;&gt;0,'Sprint 1 - Planification'!H9,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
+      <c r="E9" s="112">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="F9" s="113">
+        <v>1</v>
+      </c>
       <c r="G9" s="114"/>
       <c r="K9" s="3" t="b">
         <f t="shared" ref="K9:K42" si="0">AND($D9="Sprint 1",ISBLANK(E9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="b">
         <f t="shared" ref="L9:L42" si="1">AND($D9="Sprint 1",ISBLANK(F9))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="b">
         <f t="shared" ref="M9:M42" si="2">AND($D9="Sprint 1",NOT(ISBLANK($F9)),$F9&lt;100%,ISBLANK($G9))</f>
@@ -9330,7 +9843,7 @@
       </c>
       <c r="T9" s="10">
         <f>T8</f>
-        <v>0</v>
+        <v>0.42708333333333326</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
@@ -9346,16 +9859,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H10)&lt;&gt;0,'Sprint 1 - Planification'!H10,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="116"/>
+      <c r="E10" s="115">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="F10" s="116">
+        <v>1</v>
+      </c>
       <c r="G10" s="117"/>
       <c r="K10" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9374,7 +9891,7 @@
       </c>
       <c r="T10" s="63">
         <f>DAY(T8)*24+HOUR(T8)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
@@ -9390,16 +9907,20 @@
         <f>IF(LEN('Sprint 1 - Planification'!H11)&lt;&gt;0,'Sprint 1 - Planification'!H11,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="113"/>
+      <c r="E11" s="112">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F11" s="113">
+        <v>1</v>
+      </c>
       <c r="G11" s="114"/>
       <c r="K11" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3" t="b">
         <f t="shared" si="2"/>
@@ -9410,21 +9931,21 @@
       <c r="P11" s="8"/>
       <c r="T11" s="4">
         <f>MINUTE(T8)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="53" t="str">
+      <c r="B12" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B12)&lt;&gt;0,'Sprint 1 - Planification'!B12,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="C12" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C12)&lt;&gt;0,'Sprint 1 - Planification'!C12,"")</f>
-        <v/>
+        <v>Familiarisation avec les librairies isometriques</v>
       </c>
       <c r="D12" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E12" s="118"/>
       <c r="F12" s="116"/>
@@ -9443,29 +9964,29 @@
       </c>
       <c r="P12" s="8"/>
       <c r="S12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T12" s="63">
         <f>T10</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U12" s="4" t="str">
         <f>T12 &amp; " " &amp; S12 &amp; IF(T12 &gt; 1, "s", "")</f>
-        <v>0 heure</v>
+        <v>10 heures</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="50" t="str">
+      <c r="B13" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B13)&lt;&gt;0,'Sprint 1 - Planification'!B13,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="C13" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C13)&lt;&gt;0,'Sprint 1 - Planification'!C13,"")</f>
-        <v/>
+        <v>Creation d'une map basique en isometrique :</v>
       </c>
       <c r="D13" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
@@ -9484,29 +10005,29 @@
       </c>
       <c r="P13" s="8"/>
       <c r="S13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T13" s="4">
         <f>T11</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U13" s="4" t="str">
         <f>T13 &amp; " " &amp; S13 &amp; IF(T13 &gt; 1, "s", "")</f>
-        <v>0 minute</v>
+        <v>15 minutes</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="53" t="str">
+      <c r="B14" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B14)&lt;&gt;0,'Sprint 1 - Planification'!B14,"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="C14" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C14)&lt;&gt;0,'Sprint 1 - Planification'!C14,"")</f>
-        <v/>
+        <v>creation d'un personnage deplacable sur la map</v>
       </c>
       <c r="D14" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E14" s="118"/>
       <c r="F14" s="116"/>
@@ -9526,25 +10047,25 @@
       <c r="P14" s="8"/>
       <c r="U14" s="4" t="str">
         <f>IF(T12&gt;0,IF(T13&gt;0,U12&amp;" et "&amp;U13,U12),U13)</f>
-        <v>0 minute</v>
+        <v>10 heures et 15 minutes</v>
       </c>
       <c r="W14" s="4" t="str">
         <f>T12&amp;"h"&amp;TEXT(T13,"00")</f>
-        <v>0h00</v>
+        <v>10h15</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="50" t="str">
+      <c r="B15" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B15)&lt;&gt;0,'Sprint 1 - Planification'!B15,"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="C15" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C15)&lt;&gt;0,'Sprint 1 - Planification'!C15,"")</f>
-        <v/>
+        <v>creation d'une matrice de map basiques</v>
       </c>
       <c r="D15" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E15" s="112"/>
       <c r="F15" s="113"/>
@@ -9564,25 +10085,25 @@
       <c r="P15" s="8"/>
       <c r="T15" s="4">
         <f t="array" ref="T15">SUM(($D$8:$D$42="Sprint 1")*($F$8:$F$42&lt;1))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U15" s="4" t="str">
         <f>IF(T15=0,"",IF(T15=1,"Une tâche est en retard!",CONCATENATE(T15," tâches sont en retard!")))</f>
-        <v>4 tâches sont en retard!</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="str">
+      <c r="B16" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B16)&lt;&gt;0,'Sprint 1 - Planification'!B16,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C16" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v/>
+        <v>Connection des differentes maps pour se deplacer entre les maps</v>
       </c>
       <c r="D16" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E16" s="115"/>
       <c r="F16" s="116"/>
@@ -9602,17 +10123,17 @@
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="50" t="str">
+      <c r="B17" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B17)&lt;&gt;0,'Sprint 1 - Planification'!B17,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="C17" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C17)&lt;&gt;0,'Sprint 1 - Planification'!C17,"")</f>
-        <v/>
+        <v>Creation des quatres combattants</v>
       </c>
       <c r="D17" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H17)&lt;&gt;0,'Sprint 1 - Planification'!H17,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E17" s="112"/>
       <c r="F17" s="113"/>
@@ -9632,17 +10153,17 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="53" t="str">
+      <c r="B18" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B18)&lt;&gt;0,'Sprint 1 - Planification'!B18,"")</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="C18" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C18)&lt;&gt;0,'Sprint 1 - Planification'!C18,"")</f>
-        <v/>
+        <v>affichage des HP/MP pour chacun des combatants</v>
       </c>
       <c r="D18" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H18)&lt;&gt;0,'Sprint 1 - Planification'!H18,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E18" s="118"/>
       <c r="F18" s="116"/>
@@ -9662,17 +10183,17 @@
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="str">
+      <c r="B19" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B19)&lt;&gt;0,'Sprint 1 - Planification'!B19,"")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="C19" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v/>
+        <v>Creation des classes de combatants</v>
       </c>
       <c r="D19" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E19" s="112"/>
       <c r="F19" s="113"/>
@@ -9692,17 +10213,17 @@
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="53" t="str">
+      <c r="B20" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B20)&lt;&gt;0,'Sprint 1 - Planification'!B20,"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="C20" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C20)&lt;&gt;0,'Sprint 1 - Planification'!C20,"")</f>
-        <v/>
+        <v>Creation des items de base</v>
       </c>
       <c r="D20" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H20)&lt;&gt;0,'Sprint 1 - Planification'!H20,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E20" s="118"/>
       <c r="F20" s="116"/>
@@ -9722,17 +10243,17 @@
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="str">
+      <c r="B21" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B21)&lt;&gt;0,'Sprint 1 - Planification'!B21,"")</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="C21" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v/>
+        <v>Creation + affichage d'un inventaire</v>
       </c>
       <c r="D21" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E21" s="112"/>
       <c r="F21" s="113"/>
@@ -9752,17 +10273,17 @@
       <c r="P21" s="8"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="53" t="str">
+      <c r="B22" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B22)&lt;&gt;0,'Sprint 1 - Planification'!B22,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="C22" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v/>
+        <v>affichage des stats des combatants</v>
       </c>
       <c r="D22" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E22" s="115"/>
       <c r="F22" s="116"/>
@@ -9782,17 +10303,17 @@
       <c r="P22" s="8"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="50" t="str">
+      <c r="B23" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B23)&lt;&gt;0,'Sprint 1 - Planification'!B23,"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="C23" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v/>
+        <v>equiper ses combatants:</v>
       </c>
       <c r="D23" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E23" s="112"/>
       <c r="F23" s="113"/>
@@ -9812,17 +10333,17 @@
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="53" t="str">
+      <c r="B24" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B24)&lt;&gt;0,'Sprint 1 - Planification'!B24,"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="C24" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v/>
+        <v>rentrer en combat aléatoirement a chaque deplacement</v>
       </c>
       <c r="D24" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E24" s="118"/>
       <c r="F24" s="116"/>
@@ -9842,17 +10363,17 @@
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="str">
+      <c r="B25" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B25)&lt;&gt;0,'Sprint 1 - Planification'!B25,"")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="C25" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v/>
+        <v xml:space="preserve">Affichage des combattants </v>
       </c>
       <c r="D25" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E25" s="112"/>
       <c r="F25" s="113"/>
@@ -9872,17 +10393,17 @@
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="53" t="str">
+      <c r="B26" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B26)&lt;&gt;0,'Sprint 1 - Planification'!B26,"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C26" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v/>
+        <v>Affichage de l'ordre de combat</v>
       </c>
       <c r="D26" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E26" s="118"/>
       <c r="F26" s="116"/>
@@ -9902,17 +10423,17 @@
       <c r="P26" s="8"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="50" t="str">
+      <c r="B27" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B27)&lt;&gt;0,'Sprint 1 - Planification'!B27,"")</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="C27" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C27)&lt;&gt;0,'Sprint 1 - Planification'!C27,"")</f>
-        <v/>
+        <v>permettre aux combattants de finir le tour</v>
       </c>
       <c r="D27" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H27)&lt;&gt;0,'Sprint 1 - Planification'!H27,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E27" s="112"/>
       <c r="F27" s="113"/>
@@ -9932,17 +10453,17 @@
       <c r="P27" s="8"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="str">
+      <c r="B28" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B28)&lt;&gt;0,'Sprint 1 - Planification'!B28,"")</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="C28" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C28)&lt;&gt;0,'Sprint 1 - Planification'!C28,"")</f>
-        <v/>
+        <v>permettre aux combattants de se deplacer</v>
       </c>
       <c r="D28" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H28)&lt;&gt;0,'Sprint 1 - Planification'!H28,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E28" s="115"/>
       <c r="F28" s="116"/>
@@ -9962,17 +10483,17 @@
       <c r="P28" s="8"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="50" t="str">
+      <c r="B29" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B29)&lt;&gt;0,'Sprint 1 - Planification'!B29,"")</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="C29" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C29)&lt;&gt;0,'Sprint 1 - Planification'!C29,"")</f>
-        <v/>
+        <v>permettre aux combatants d'effectuer des attaques normales</v>
       </c>
       <c r="D29" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H29)&lt;&gt;0,'Sprint 1 - Planification'!H29,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E29" s="112"/>
       <c r="F29" s="113"/>
@@ -9992,17 +10513,17 @@
       <c r="P29" s="8"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="53" t="str">
+      <c r="B30" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B30)&lt;&gt;0,'Sprint 1 - Planification'!B30,"")</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="C30" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C30)&lt;&gt;0,'Sprint 1 - Planification'!C30,"")</f>
-        <v/>
+        <v>permettre aux combatants de lancer des sorts</v>
       </c>
       <c r="D30" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H30)&lt;&gt;0,'Sprint 1 - Planification'!H30,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E30" s="118"/>
       <c r="F30" s="116"/>
@@ -10022,17 +10543,17 @@
       <c r="P30" s="8"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="50" t="str">
+      <c r="B31" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B31)&lt;&gt;0,'Sprint 1 - Planification'!B31,"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="C31" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C31)&lt;&gt;0,'Sprint 1 - Planification'!C31,"")</f>
-        <v/>
+        <v>permettre aux combatants d'utiliser des items en combat</v>
       </c>
       <c r="D31" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H31)&lt;&gt;0,'Sprint 1 - Planification'!H31,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E31" s="112"/>
       <c r="F31" s="113"/>
@@ -10052,17 +10573,17 @@
       <c r="P31" s="8"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="53" t="str">
+      <c r="B32" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B32)&lt;&gt;0,'Sprint 1 - Planification'!B32,"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="C32" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C32)&lt;&gt;0,'Sprint 1 - Planification'!C32,"")</f>
-        <v/>
+        <v>gestion de la morts des combattants</v>
       </c>
       <c r="D32" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H32)&lt;&gt;0,'Sprint 1 - Planification'!H32,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E32" s="118"/>
       <c r="F32" s="116"/>
@@ -10082,17 +10603,17 @@
       <c r="P32" s="8"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="str">
+      <c r="B33" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B33)&lt;&gt;0,'Sprint 1 - Planification'!B33,"")</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="C33" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C33)&lt;&gt;0,'Sprint 1 - Planification'!C33,"")</f>
-        <v/>
+        <v>recuperation de l'experience / items a la fin du combat</v>
       </c>
       <c r="D33" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H33)&lt;&gt;0,'Sprint 1 - Planification'!H33,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E33" s="112"/>
       <c r="F33" s="113"/>
@@ -10112,17 +10633,17 @@
       <c r="P33" s="8"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="53" t="str">
+      <c r="B34" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B34)&lt;&gt;0,'Sprint 1 - Planification'!B34,"")</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="C34" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C34)&lt;&gt;0,'Sprint 1 - Planification'!C34,"")</f>
-        <v/>
+        <v>sauvegarder le jeu</v>
       </c>
       <c r="D34" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H34)&lt;&gt;0,'Sprint 1 - Planification'!H34,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E34" s="115"/>
       <c r="F34" s="116"/>
@@ -10142,17 +10663,17 @@
       <c r="P34" s="8"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="50" t="str">
+      <c r="B35" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B35)&lt;&gt;0,'Sprint 1 - Planification'!B35,"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="C35" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C35)&lt;&gt;0,'Sprint 1 - Planification'!C35,"")</f>
-        <v/>
+        <v>charger une parte sauvegarder</v>
       </c>
       <c r="D35" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H35)&lt;&gt;0,'Sprint 1 - Planification'!H35,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E35" s="112"/>
       <c r="F35" s="113"/>
@@ -10172,17 +10693,17 @@
       <c r="P35" s="8"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="53" t="str">
+      <c r="B36" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B36)&lt;&gt;0,'Sprint 1 - Planification'!B36,"")</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="C36" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C36)&lt;&gt;0,'Sprint 1 - Planification'!C36,"")</f>
-        <v/>
+        <v>utilisation de la souris pour selectionner des elements</v>
       </c>
       <c r="D36" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H36)&lt;&gt;0,'Sprint 1 - Planification'!H36,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E36" s="118"/>
       <c r="F36" s="116"/>
@@ -10202,17 +10723,17 @@
       <c r="P36" s="8"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="50" t="str">
+      <c r="B37" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B37)&lt;&gt;0,'Sprint 1 - Planification'!B37,"")</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="C37" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C37)&lt;&gt;0,'Sprint 1 - Planification'!C37,"")</f>
-        <v/>
+        <v>implantation d'un système de quetes</v>
       </c>
       <c r="D37" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H37)&lt;&gt;0,'Sprint 1 - Planification'!H37,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E37" s="112"/>
       <c r="F37" s="113"/>
@@ -10232,17 +10753,17 @@
       <c r="P37" s="8"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="53" t="str">
+      <c r="B38" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B38)&lt;&gt;0,'Sprint 1 - Planification'!B38,"")</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="C38" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C38)&lt;&gt;0,'Sprint 1 - Planification'!C38,"")</f>
-        <v/>
+        <v>creation d'une IA pour les ennemis</v>
       </c>
       <c r="D38" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H38)&lt;&gt;0,'Sprint 1 - Planification'!H38,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E38" s="118"/>
       <c r="F38" s="116"/>
@@ -10262,17 +10783,17 @@
       <c r="P38" s="8"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="50" t="str">
+      <c r="B39" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B39)&lt;&gt;0,'Sprint 1 - Planification'!B39,"")</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="C39" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C39)&lt;&gt;0,'Sprint 1 - Planification'!C39,"")</f>
-        <v/>
+        <v>creation d'une mini-map</v>
       </c>
       <c r="D39" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H39)&lt;&gt;0,'Sprint 1 - Planification'!H39,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E39" s="112"/>
       <c r="F39" s="113"/>
@@ -10384,11 +10905,11 @@
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K43" s="3">
         <f>COUNTIF(K8:K42,TRUE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" ref="L43:M43" si="4">COUNTIF(L8:L42,TRUE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <f t="shared" si="4"/>
@@ -10399,14 +10920,14 @@
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K44" s="3">
         <f>SUM(K43:M43)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P44" s="8"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="K45" s="3" t="str">
         <f>IF(K44=0, "aucun champ", IF(K44=1, "1 champ", K44 &amp; " champs"))</f>
-        <v>8 champs</v>
+        <v>aucun champ</v>
       </c>
       <c r="P45" s="8"/>
     </row>
@@ -10569,7 +11090,7 @@
   <dimension ref="B1:Z57"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10590,7 +11111,7 @@
     <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="124" t="str">
         <f>'Sprint 1 - Planification'!B2:H2</f>
-        <v>Nom du projet super cool que vous faites!</v>
+        <v>RPG</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -10602,7 +11123,7 @@
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="33"/>
@@ -10624,7 +11145,7 @@
     </row>
     <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -10634,7 +11155,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 8 champs à remplir!</v>
+        <v>Attention, il reste 24 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10643,23 +11164,23 @@
         <v>0</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="127"/>
       <c r="G7" s="132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="136" t="s">
         <v>24</v>
-      </c>
-      <c r="I7" s="136" t="s">
-        <v>25</v>
       </c>
       <c r="M7" s="7"/>
     </row>
@@ -10668,10 +11189,10 @@
       <c r="C8" s="131"/>
       <c r="D8" s="129"/>
       <c r="E8" s="65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="133"/>
       <c r="H8" s="135"/>
@@ -10691,24 +11212,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H8)&lt;&gt;0,'Sprint 1 - Planification'!H8,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E9" s="72" t="str">
+      <c r="E9" s="72">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E8),"",'Sprint 1 - Bilan'!E8)</f>
-        <v/>
-      </c>
-      <c r="F9" s="71" t="str">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F9" s="71">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F8),"",'Sprint 1 - Bilan'!F8)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G9" s="109"/>
       <c r="H9" s="110"/>
       <c r="I9" s="111"/>
       <c r="M9" s="3" t="b">
         <f>OR(AND(NOT(P9),LEN($G9)=0),AND(LEN($H9)&gt;0,LEN($G9)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="b">
         <f>AND(NOT($P9),LEN($H9)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="b">
         <f>AND($D9&lt;&gt;"Sprint 3",NOT(ISBLANK($H9)),$H9&lt;100%,ISBLANK($I9))</f>
@@ -10716,7 +11237,7 @@
       </c>
       <c r="P9" s="3" t="b">
         <f>IF(OR(LEN($D9)=0,$D9="Sprint 3"),TRUE,IF(COUNTA($F9)=0,IF(LEN($H9)=0,FALSE,$H9=100%),IF($F9=100%,TRUE,IF(LEN($H9)=0,FALSE,$H9=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>1</v>
@@ -10747,24 +11268,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H9)&lt;&gt;0,'Sprint 1 - Planification'!H9,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E10" s="73" t="str">
+      <c r="E10" s="73">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E9),"",'Sprint 1 - Bilan'!E9)</f>
-        <v/>
-      </c>
-      <c r="F10" s="77" t="str">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="F10" s="77">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F9),"",'Sprint 1 - Bilan'!F9)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G10" s="112"/>
       <c r="H10" s="113"/>
       <c r="I10" s="114"/>
       <c r="M10" s="3" t="b">
         <f t="shared" ref="M10:M43" si="0">OR(AND(NOT(P10),LEN($G10)=0),AND(LEN($H10)&gt;0,LEN($G10)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="b">
         <f t="shared" ref="N10:N43" si="1">AND(NOT(P10),LEN($H10)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="b">
         <f t="shared" ref="O10:O43" si="2">AND($D10&lt;&gt;"Sprint 3",NOT(ISBLANK($H10)),$H10&lt;100%,ISBLANK($I10))</f>
@@ -10772,7 +11293,7 @@
       </c>
       <c r="P10" s="3" t="b">
         <f t="shared" ref="P10:P43" si="3">IF(OR(LEN($D10)=0,$D10="Sprint 3"),TRUE,IF(COUNTA($F10)=0,IF(LEN($H10)=0,FALSE,$H10=100%),IF($F10=100%,TRUE,IF(LEN($H10)=0,FALSE,$H10=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>2</v>
@@ -10803,24 +11324,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H10)&lt;&gt;0,'Sprint 1 - Planification'!H10,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E11" s="74" t="str">
+      <c r="E11" s="74">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E10),"",'Sprint 1 - Bilan'!E10)</f>
-        <v/>
-      </c>
-      <c r="F11" s="78" t="str">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="F11" s="78">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F10),"",'Sprint 1 - Bilan'!F10)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G11" s="115"/>
       <c r="H11" s="116"/>
       <c r="I11" s="117"/>
       <c r="M11" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10828,7 +11349,7 @@
       </c>
       <c r="P11" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>3</v>
@@ -10859,24 +11380,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H11)&lt;&gt;0,'Sprint 1 - Planification'!H11,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E12" s="73" t="str">
+      <c r="E12" s="73">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E11),"",'Sprint 1 - Bilan'!E11)</f>
-        <v/>
-      </c>
-      <c r="F12" s="77" t="str">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F12" s="77">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!F11),"",'Sprint 1 - Bilan'!F11)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G12" s="112"/>
       <c r="H12" s="113"/>
       <c r="I12" s="114"/>
       <c r="M12" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10884,7 +11405,7 @@
       </c>
       <c r="P12" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -10894,17 +11415,17 @@
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="str">
+      <c r="B13" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B12)&lt;&gt;0,'Sprint 1 - Planification'!B12,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="C13" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C12)&lt;&gt;0,'Sprint 1 - Planification'!C12,"")</f>
-        <v/>
+        <v>Familiarisation avec les librairies isometriques</v>
       </c>
       <c r="D13" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E13" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E12),"",'Sprint 1 - Bilan'!E12)</f>
@@ -10919,11 +11440,11 @@
       <c r="I13" s="117"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10931,11 +11452,11 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V13" s="63">
         <f>V11</f>
@@ -10947,17 +11468,17 @@
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="str">
+      <c r="B14" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B13)&lt;&gt;0,'Sprint 1 - Planification'!B13,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="C14" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C13)&lt;&gt;0,'Sprint 1 - Planification'!C13,"")</f>
-        <v/>
+        <v>Creation d'une map basique en isometrique :</v>
       </c>
       <c r="D14" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E14" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E13),"",'Sprint 1 - Bilan'!E13)</f>
@@ -10972,11 +11493,11 @@
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10984,11 +11505,11 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V14" s="4">
         <f>V12</f>
@@ -11000,17 +11521,17 @@
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="str">
+      <c r="B15" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B14)&lt;&gt;0,'Sprint 1 - Planification'!B14,"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="C15" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C14)&lt;&gt;0,'Sprint 1 - Planification'!C14,"")</f>
-        <v/>
+        <v>creation d'un personnage deplacable sur la map</v>
       </c>
       <c r="D15" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E15" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E14),"",'Sprint 1 - Bilan'!E14)</f>
@@ -11025,11 +11546,11 @@
       <c r="I15" s="117"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11037,7 +11558,7 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
@@ -11050,17 +11571,17 @@
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="str">
+      <c r="B16" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B15)&lt;&gt;0,'Sprint 1 - Planification'!B15,"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="C16" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C15)&lt;&gt;0,'Sprint 1 - Planification'!C15,"")</f>
-        <v/>
+        <v>creation d'une matrice de map basiques</v>
       </c>
       <c r="D16" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E16" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E15),"",'Sprint 1 - Bilan'!E15)</f>
@@ -11075,11 +11596,11 @@
       <c r="I16" s="114"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11087,30 +11608,30 @@
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche est en retard!",CONCATENATE(V16," tâches sont en retard!")))</f>
-        <v>4 tâches sont en retard!</v>
+        <v>12 tâches sont en retard!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="53" t="str">
+      <c r="B17" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B16)&lt;&gt;0,'Sprint 1 - Planification'!B16,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C17" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v/>
+        <v>Connection des differentes maps pour se deplacer entre les maps</v>
       </c>
       <c r="D17" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E17" s="74" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E16),"",'Sprint 1 - Bilan'!E16)</f>
@@ -11125,11 +11646,11 @@
       <c r="I17" s="117"/>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11137,22 +11658,22 @@
       </c>
       <c r="P17" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="50" t="str">
+      <c r="B18" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B17)&lt;&gt;0,'Sprint 1 - Planification'!B17,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="C18" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C17)&lt;&gt;0,'Sprint 1 - Planification'!C17,"")</f>
-        <v/>
+        <v>Creation des quatres combattants</v>
       </c>
       <c r="D18" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H17)&lt;&gt;0,'Sprint 1 - Planification'!H17,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E18" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E17),"",'Sprint 1 - Bilan'!E17)</f>
@@ -11167,11 +11688,11 @@
       <c r="I18" s="114"/>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11179,22 +11700,22 @@
       </c>
       <c r="P18" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="8"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="str">
+      <c r="B19" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B18)&lt;&gt;0,'Sprint 1 - Planification'!B18,"")</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="C19" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C18)&lt;&gt;0,'Sprint 1 - Planification'!C18,"")</f>
-        <v/>
+        <v>affichage des HP/MP pour chacun des combatants</v>
       </c>
       <c r="D19" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H18)&lt;&gt;0,'Sprint 1 - Planification'!H18,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E19" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E18),"",'Sprint 1 - Bilan'!E18)</f>
@@ -11210,11 +11731,11 @@
       <c r="K19" s="9"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11222,22 +11743,22 @@
       </c>
       <c r="P19" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="8"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="str">
+      <c r="B20" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B19)&lt;&gt;0,'Sprint 1 - Planification'!B19,"")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="C20" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v/>
+        <v>Creation des classes de combatants</v>
       </c>
       <c r="D20" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E20" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E19),"",'Sprint 1 - Bilan'!E19)</f>
@@ -11252,11 +11773,11 @@
       <c r="I20" s="114"/>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11264,22 +11785,22 @@
       </c>
       <c r="P20" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="str">
+      <c r="B21" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B20)&lt;&gt;0,'Sprint 1 - Planification'!B20,"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="C21" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C20)&lt;&gt;0,'Sprint 1 - Planification'!C20,"")</f>
-        <v/>
+        <v>Creation des items de base</v>
       </c>
       <c r="D21" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H20)&lt;&gt;0,'Sprint 1 - Planification'!H20,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E21" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E20),"",'Sprint 1 - Bilan'!E20)</f>
@@ -11294,11 +11815,11 @@
       <c r="I21" s="117"/>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11306,22 +11827,22 @@
       </c>
       <c r="P21" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="8"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="str">
+      <c r="B22" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B21)&lt;&gt;0,'Sprint 1 - Planification'!B21,"")</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="C22" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v/>
+        <v>Creation + affichage d'un inventaire</v>
       </c>
       <c r="D22" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E22" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E21),"",'Sprint 1 - Bilan'!E21)</f>
@@ -11336,11 +11857,11 @@
       <c r="I22" s="114"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11348,22 +11869,22 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="str">
+      <c r="B23" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B22)&lt;&gt;0,'Sprint 1 - Planification'!B22,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="C23" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v/>
+        <v>affichage des stats des combatants</v>
       </c>
       <c r="D23" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E23" s="74" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E22),"",'Sprint 1 - Bilan'!E22)</f>
@@ -11378,11 +11899,11 @@
       <c r="I23" s="117"/>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11390,22 +11911,22 @@
       </c>
       <c r="P23" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="8"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="str">
+      <c r="B24" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B23)&lt;&gt;0,'Sprint 1 - Planification'!B23,"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="C24" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v/>
+        <v>equiper ses combatants:</v>
       </c>
       <c r="D24" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E24" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E23),"",'Sprint 1 - Bilan'!E23)</f>
@@ -11420,11 +11941,11 @@
       <c r="I24" s="114"/>
       <c r="M24" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11432,22 +11953,22 @@
       </c>
       <c r="P24" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="8"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="str">
+      <c r="B25" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B24)&lt;&gt;0,'Sprint 1 - Planification'!B24,"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="C25" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v/>
+        <v>rentrer en combat aléatoirement a chaque deplacement</v>
       </c>
       <c r="D25" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E25" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E24),"",'Sprint 1 - Bilan'!E24)</f>
@@ -11479,17 +12000,17 @@
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="str">
+      <c r="B26" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B25)&lt;&gt;0,'Sprint 1 - Planification'!B25,"")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="C26" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v/>
+        <v xml:space="preserve">Affichage des combattants </v>
       </c>
       <c r="D26" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E26" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E25),"",'Sprint 1 - Bilan'!E25)</f>
@@ -11521,17 +12042,17 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="str">
+      <c r="B27" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B26)&lt;&gt;0,'Sprint 1 - Planification'!B26,"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C27" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v/>
+        <v>Affichage de l'ordre de combat</v>
       </c>
       <c r="D27" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E27" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E26),"",'Sprint 1 - Bilan'!E26)</f>
@@ -11563,17 +12084,17 @@
       <c r="R27" s="8"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="str">
+      <c r="B28" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B27)&lt;&gt;0,'Sprint 1 - Planification'!B27,"")</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="C28" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C27)&lt;&gt;0,'Sprint 1 - Planification'!C27,"")</f>
-        <v/>
+        <v>permettre aux combattants de finir le tour</v>
       </c>
       <c r="D28" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H27)&lt;&gt;0,'Sprint 1 - Planification'!H27,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E28" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E27),"",'Sprint 1 - Bilan'!E27)</f>
@@ -11605,17 +12126,17 @@
       <c r="R28" s="8"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="str">
+      <c r="B29" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B28)&lt;&gt;0,'Sprint 1 - Planification'!B28,"")</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="C29" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C28)&lt;&gt;0,'Sprint 1 - Planification'!C28,"")</f>
-        <v/>
+        <v>permettre aux combattants de se deplacer</v>
       </c>
       <c r="D29" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H28)&lt;&gt;0,'Sprint 1 - Planification'!H28,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E29" s="74" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E28),"",'Sprint 1 - Bilan'!E28)</f>
@@ -11647,17 +12168,17 @@
       <c r="R29" s="8"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="50" t="str">
+      <c r="B30" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B29)&lt;&gt;0,'Sprint 1 - Planification'!B29,"")</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="C30" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C29)&lt;&gt;0,'Sprint 1 - Planification'!C29,"")</f>
-        <v/>
+        <v>permettre aux combatants d'effectuer des attaques normales</v>
       </c>
       <c r="D30" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H29)&lt;&gt;0,'Sprint 1 - Planification'!H29,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E30" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E29),"",'Sprint 1 - Bilan'!E29)</f>
@@ -11689,17 +12210,17 @@
       <c r="R30" s="8"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="str">
+      <c r="B31" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B30)&lt;&gt;0,'Sprint 1 - Planification'!B30,"")</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="C31" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C30)&lt;&gt;0,'Sprint 1 - Planification'!C30,"")</f>
-        <v/>
+        <v>permettre aux combatants de lancer des sorts</v>
       </c>
       <c r="D31" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H30)&lt;&gt;0,'Sprint 1 - Planification'!H30,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E31" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E30),"",'Sprint 1 - Bilan'!E30)</f>
@@ -11731,17 +12252,17 @@
       <c r="R31" s="8"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="str">
+      <c r="B32" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B31)&lt;&gt;0,'Sprint 1 - Planification'!B31,"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="C32" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C31)&lt;&gt;0,'Sprint 1 - Planification'!C31,"")</f>
-        <v/>
+        <v>permettre aux combatants d'utiliser des items en combat</v>
       </c>
       <c r="D32" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H31)&lt;&gt;0,'Sprint 1 - Planification'!H31,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E32" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E31),"",'Sprint 1 - Bilan'!E31)</f>
@@ -11773,17 +12294,17 @@
       <c r="R32" s="8"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="53" t="str">
+      <c r="B33" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B32)&lt;&gt;0,'Sprint 1 - Planification'!B32,"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="C33" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C32)&lt;&gt;0,'Sprint 1 - Planification'!C32,"")</f>
-        <v/>
+        <v>gestion de la morts des combattants</v>
       </c>
       <c r="D33" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H32)&lt;&gt;0,'Sprint 1 - Planification'!H32,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E33" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E32),"",'Sprint 1 - Bilan'!E32)</f>
@@ -11815,17 +12336,17 @@
       <c r="R33" s="8"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="50" t="str">
+      <c r="B34" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B33)&lt;&gt;0,'Sprint 1 - Planification'!B33,"")</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="C34" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C33)&lt;&gt;0,'Sprint 1 - Planification'!C33,"")</f>
-        <v/>
+        <v>recuperation de l'experience / items a la fin du combat</v>
       </c>
       <c r="D34" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H33)&lt;&gt;0,'Sprint 1 - Planification'!H33,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E34" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E33),"",'Sprint 1 - Bilan'!E33)</f>
@@ -11857,17 +12378,17 @@
       <c r="R34" s="8"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="53" t="str">
+      <c r="B35" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B34)&lt;&gt;0,'Sprint 1 - Planification'!B34,"")</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="C35" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C34)&lt;&gt;0,'Sprint 1 - Planification'!C34,"")</f>
-        <v/>
+        <v>sauvegarder le jeu</v>
       </c>
       <c r="D35" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H34)&lt;&gt;0,'Sprint 1 - Planification'!H34,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E35" s="74" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E34),"",'Sprint 1 - Bilan'!E34)</f>
@@ -11899,17 +12420,17 @@
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="50" t="str">
+      <c r="B36" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B35)&lt;&gt;0,'Sprint 1 - Planification'!B35,"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="C36" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C35)&lt;&gt;0,'Sprint 1 - Planification'!C35,"")</f>
-        <v/>
+        <v>charger une parte sauvegarder</v>
       </c>
       <c r="D36" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H35)&lt;&gt;0,'Sprint 1 - Planification'!H35,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E36" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E35),"",'Sprint 1 - Bilan'!E35)</f>
@@ -11941,17 +12462,17 @@
       <c r="R36" s="8"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="str">
+      <c r="B37" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B36)&lt;&gt;0,'Sprint 1 - Planification'!B36,"")</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="C37" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C36)&lt;&gt;0,'Sprint 1 - Planification'!C36,"")</f>
-        <v/>
+        <v>utilisation de la souris pour selectionner des elements</v>
       </c>
       <c r="D37" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H36)&lt;&gt;0,'Sprint 1 - Planification'!H36,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E37" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E36),"",'Sprint 1 - Bilan'!E36)</f>
@@ -11983,17 +12504,17 @@
       <c r="R37" s="8"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="50" t="str">
+      <c r="B38" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B37)&lt;&gt;0,'Sprint 1 - Planification'!B37,"")</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="C38" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C37)&lt;&gt;0,'Sprint 1 - Planification'!C37,"")</f>
-        <v/>
+        <v>implantation d'un système de quetes</v>
       </c>
       <c r="D38" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H37)&lt;&gt;0,'Sprint 1 - Planification'!H37,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E38" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E37),"",'Sprint 1 - Bilan'!E37)</f>
@@ -12025,17 +12546,17 @@
       <c r="R38" s="8"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="53" t="str">
+      <c r="B39" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B38)&lt;&gt;0,'Sprint 1 - Planification'!B38,"")</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="C39" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C38)&lt;&gt;0,'Sprint 1 - Planification'!C38,"")</f>
-        <v/>
+        <v>creation d'une IA pour les ennemis</v>
       </c>
       <c r="D39" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H38)&lt;&gt;0,'Sprint 1 - Planification'!H38,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E39" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E38),"",'Sprint 1 - Bilan'!E38)</f>
@@ -12067,17 +12588,17 @@
       <c r="R39" s="8"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="50" t="str">
+      <c r="B40" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B39)&lt;&gt;0,'Sprint 1 - Planification'!B39,"")</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="C40" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C39)&lt;&gt;0,'Sprint 1 - Planification'!C39,"")</f>
-        <v/>
+        <v>creation d'une mini-map</v>
       </c>
       <c r="D40" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H39)&lt;&gt;0,'Sprint 1 - Planification'!H39,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E40" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E39),"",'Sprint 1 - Bilan'!E39)</f>
@@ -12237,11 +12758,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -12249,21 +12770,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>8 champs</v>
+        <v>24 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -12463,7 +12984,7 @@
     <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="124" t="str">
         <f>'Sprint 1 - Planification'!B2:H2</f>
-        <v>Nom du projet super cool que vous faites!</v>
+        <v>RPG</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -12475,7 +12996,7 @@
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="33"/>
@@ -12497,7 +13018,7 @@
     </row>
     <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -12507,7 +13028,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 8 champs à remplir!</v>
+        <v>Attention, il reste 56 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -12516,23 +13037,23 @@
         <v>0</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="127"/>
       <c r="G7" s="132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="136" t="s">
         <v>24</v>
-      </c>
-      <c r="I7" s="136" t="s">
-        <v>25</v>
       </c>
       <c r="M7" s="7"/>
     </row>
@@ -12541,10 +13062,10 @@
       <c r="C8" s="131"/>
       <c r="D8" s="129"/>
       <c r="E8" s="67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="133"/>
       <c r="H8" s="135"/>
@@ -12564,24 +13085,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H8)&lt;&gt;0,'Sprint 1 - Planification'!H8,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E9" s="72" t="str">
+      <c r="E9" s="72">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E9)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G9)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E9)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G9))</f>
-        <v/>
-      </c>
-      <c r="F9" s="71" t="str">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="F9" s="71">
         <f>IF(LEN('Sprint 2 - Bilan'!$H9)&lt;&gt;0,'Sprint 2 - Bilan'!$H9,IF(LEN('Sprint 2 - Bilan'!$F9)=0,"",'Sprint 2 - Bilan'!$F9))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G9" s="109"/>
       <c r="H9" s="110"/>
       <c r="I9" s="111"/>
       <c r="M9" s="3" t="b">
         <f>OR(AND(NOT(P9),LEN($G9)=0),AND(LEN($H9)&gt;0,LEN($G9)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="b">
         <f>AND(NOT($P9),LEN($H9)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="b">
         <f>AND(LEN($H9)&gt;0,$H9&lt;100%,LEN($I9)=0)</f>
@@ -12589,7 +13110,7 @@
       </c>
       <c r="P9" s="3" t="b">
         <f>IF(LEN($C9)=0,TRUE,IF(LEN($F9)=0,IF(LEN($H9)=0,FALSE,$H9=100%),IF($F9=100%,TRUE,IF(LEN($H9)=0,FALSE,$H9=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>1</v>
@@ -12620,24 +13141,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H9)&lt;&gt;0,'Sprint 1 - Planification'!H9,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E10" s="73" t="str">
+      <c r="E10" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E10)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G10)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E10)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G10))</f>
-        <v/>
-      </c>
-      <c r="F10" s="77" t="str">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="F10" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H10)&lt;&gt;0,'Sprint 2 - Bilan'!$H10,IF(LEN('Sprint 2 - Bilan'!$F10)=0,"",'Sprint 2 - Bilan'!$F10))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G10" s="112"/>
       <c r="H10" s="113"/>
       <c r="I10" s="114"/>
       <c r="M10" s="3" t="b">
         <f t="shared" ref="M10:M43" si="0">OR(AND(NOT(P10),LEN($G10)=0),AND(LEN($H10)&gt;0,LEN($G10)=0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3" t="b">
         <f t="shared" ref="N10:N43" si="1">AND(NOT($P10),LEN($H10)=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="b">
         <f t="shared" ref="O10:O43" si="2">AND(LEN($H10)&gt;0,$H10&lt;100%,LEN($I10)=0)</f>
@@ -12645,7 +13166,7 @@
       </c>
       <c r="P10" s="3" t="b">
         <f t="shared" ref="P10:P43" si="3">IF(LEN($C10)=0,TRUE,IF(LEN($F10)=0,IF(LEN($H10)=0,FALSE,$H10=100%),IF($F10=100%,TRUE,IF(LEN($H10)=0,FALSE,$H10=100%))))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>2</v>
@@ -12676,24 +13197,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H10)&lt;&gt;0,'Sprint 1 - Planification'!H10,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E11" s="74" t="str">
+      <c r="E11" s="74">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E11)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G11)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E11)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G11))</f>
-        <v/>
-      </c>
-      <c r="F11" s="78" t="str">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="F11" s="78">
         <f>IF(LEN('Sprint 2 - Bilan'!$H11)&lt;&gt;0,'Sprint 2 - Bilan'!$H11,IF(LEN('Sprint 2 - Bilan'!$F11)=0,"",'Sprint 2 - Bilan'!$F11))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G11" s="115"/>
       <c r="H11" s="116"/>
       <c r="I11" s="117"/>
       <c r="M11" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12701,7 +13222,7 @@
       </c>
       <c r="P11" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>3</v>
@@ -12732,24 +13253,24 @@
         <f>IF(LEN('Sprint 1 - Planification'!H11)&lt;&gt;0,'Sprint 1 - Planification'!H11,"")</f>
         <v>Sprint 1</v>
       </c>
-      <c r="E12" s="73" t="str">
+      <c r="E12" s="73">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E12)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G12)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E12)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G12))</f>
-        <v/>
-      </c>
-      <c r="F12" s="77" t="str">
+        <v>3.125E-2</v>
+      </c>
+      <c r="F12" s="77">
         <f>IF(LEN('Sprint 2 - Bilan'!$H12)&lt;&gt;0,'Sprint 2 - Bilan'!$H12,IF(LEN('Sprint 2 - Bilan'!$F12)=0,"",'Sprint 2 - Bilan'!$F12))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="G12" s="112"/>
       <c r="H12" s="113"/>
       <c r="I12" s="114"/>
       <c r="M12" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12757,7 +13278,7 @@
       </c>
       <c r="P12" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -12767,17 +13288,17 @@
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="str">
+      <c r="B13" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B12)&lt;&gt;0,'Sprint 1 - Planification'!B12,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="C13" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C12)&lt;&gt;0,'Sprint 1 - Planification'!C12,"")</f>
-        <v/>
+        <v>Familiarisation avec les librairies isometriques</v>
       </c>
       <c r="D13" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E13" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13))</f>
@@ -12792,11 +13313,11 @@
       <c r="I13" s="117"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12804,11 +13325,11 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V13" s="63">
         <f>V11</f>
@@ -12820,17 +13341,17 @@
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="str">
+      <c r="B14" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B13)&lt;&gt;0,'Sprint 1 - Planification'!B13,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="C14" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C13)&lt;&gt;0,'Sprint 1 - Planification'!C13,"")</f>
-        <v/>
+        <v>Creation d'une map basique en isometrique :</v>
       </c>
       <c r="D14" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E14" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14))</f>
@@ -12845,11 +13366,11 @@
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12857,11 +13378,11 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V14" s="4">
         <f>V12</f>
@@ -12873,17 +13394,17 @@
       </c>
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="53" t="str">
+      <c r="B15" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B14)&lt;&gt;0,'Sprint 1 - Planification'!B14,"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="C15" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C14)&lt;&gt;0,'Sprint 1 - Planification'!C14,"")</f>
-        <v/>
+        <v>creation d'un personnage deplacable sur la map</v>
       </c>
       <c r="D15" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E15" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15))</f>
@@ -12898,11 +13419,11 @@
       <c r="I15" s="117"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12910,7 +13431,7 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
@@ -12923,17 +13444,17 @@
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B16" s="50" t="str">
+      <c r="B16" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B15)&lt;&gt;0,'Sprint 1 - Planification'!B15,"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="C16" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C15)&lt;&gt;0,'Sprint 1 - Planification'!C15,"")</f>
-        <v/>
+        <v>creation d'une matrice de map basiques</v>
       </c>
       <c r="D16" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E16" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16))</f>
@@ -12948,11 +13469,11 @@
       <c r="I16" s="114"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12960,30 +13481,30 @@
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>4 tâches n'ont pas été terminé!</v>
+        <v>28 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="53" t="str">
+      <c r="B17" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B16)&lt;&gt;0,'Sprint 1 - Planification'!B16,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C17" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v/>
+        <v>Connection des differentes maps pour se deplacer entre les maps</v>
       </c>
       <c r="D17" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E17" s="74" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17))</f>
@@ -12998,11 +13519,11 @@
       <c r="I17" s="117"/>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13010,22 +13531,22 @@
       </c>
       <c r="P17" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="50" t="str">
+      <c r="B18" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B17)&lt;&gt;0,'Sprint 1 - Planification'!B17,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="C18" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C17)&lt;&gt;0,'Sprint 1 - Planification'!C17,"")</f>
-        <v/>
+        <v>Creation des quatres combattants</v>
       </c>
       <c r="D18" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H17)&lt;&gt;0,'Sprint 1 - Planification'!H17,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E18" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18))</f>
@@ -13040,11 +13561,11 @@
       <c r="I18" s="114"/>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13052,22 +13573,22 @@
       </c>
       <c r="P18" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="8"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="str">
+      <c r="B19" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B18)&lt;&gt;0,'Sprint 1 - Planification'!B18,"")</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="C19" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C18)&lt;&gt;0,'Sprint 1 - Planification'!C18,"")</f>
-        <v/>
+        <v>affichage des HP/MP pour chacun des combatants</v>
       </c>
       <c r="D19" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H18)&lt;&gt;0,'Sprint 1 - Planification'!H18,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E19" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19))</f>
@@ -13082,11 +13603,11 @@
       <c r="I19" s="117"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13094,22 +13615,22 @@
       </c>
       <c r="P19" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="8"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="str">
+      <c r="B20" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B19)&lt;&gt;0,'Sprint 1 - Planification'!B19,"")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="C20" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v/>
+        <v>Creation des classes de combatants</v>
       </c>
       <c r="D20" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E20" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20))</f>
@@ -13124,11 +13645,11 @@
       <c r="I20" s="114"/>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13136,22 +13657,22 @@
       </c>
       <c r="P20" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="str">
+      <c r="B21" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B20)&lt;&gt;0,'Sprint 1 - Planification'!B20,"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="C21" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C20)&lt;&gt;0,'Sprint 1 - Planification'!C20,"")</f>
-        <v/>
+        <v>Creation des items de base</v>
       </c>
       <c r="D21" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H20)&lt;&gt;0,'Sprint 1 - Planification'!H20,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E21" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21))</f>
@@ -13166,11 +13687,11 @@
       <c r="I21" s="117"/>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13178,22 +13699,22 @@
       </c>
       <c r="P21" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="8"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="50" t="str">
+      <c r="B22" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B21)&lt;&gt;0,'Sprint 1 - Planification'!B21,"")</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="C22" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v/>
+        <v>Creation + affichage d'un inventaire</v>
       </c>
       <c r="D22" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E22" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22))</f>
@@ -13208,11 +13729,11 @@
       <c r="I22" s="114"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13220,22 +13741,22 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="53" t="str">
+      <c r="B23" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B22)&lt;&gt;0,'Sprint 1 - Planification'!B22,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="C23" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v/>
+        <v>affichage des stats des combatants</v>
       </c>
       <c r="D23" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E23" s="74" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23))</f>
@@ -13250,11 +13771,11 @@
       <c r="I23" s="117"/>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13262,22 +13783,22 @@
       </c>
       <c r="P23" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="8"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="str">
+      <c r="B24" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B23)&lt;&gt;0,'Sprint 1 - Planification'!B23,"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="C24" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v/>
+        <v>equiper ses combatants:</v>
       </c>
       <c r="D24" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E24" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E24)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G24)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E24)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G24))</f>
@@ -13292,11 +13813,11 @@
       <c r="I24" s="114"/>
       <c r="M24" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13304,22 +13825,22 @@
       </c>
       <c r="P24" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="8"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="53" t="str">
+      <c r="B25" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B24)&lt;&gt;0,'Sprint 1 - Planification'!B24,"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="C25" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v/>
+        <v>rentrer en combat aléatoirement a chaque deplacement</v>
       </c>
       <c r="D25" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E25" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E25)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G25)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E25)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G25))</f>
@@ -13334,11 +13855,11 @@
       <c r="I25" s="117"/>
       <c r="M25" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13346,22 +13867,22 @@
       </c>
       <c r="P25" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="50" t="str">
+      <c r="B26" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B25)&lt;&gt;0,'Sprint 1 - Planification'!B25,"")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="C26" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v/>
+        <v xml:space="preserve">Affichage des combattants </v>
       </c>
       <c r="D26" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E26" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E26)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G26)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E26)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G26))</f>
@@ -13376,11 +13897,11 @@
       <c r="I26" s="114"/>
       <c r="M26" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13388,22 +13909,22 @@
       </c>
       <c r="P26" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="53" t="str">
+      <c r="B27" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B26)&lt;&gt;0,'Sprint 1 - Planification'!B26,"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C27" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v/>
+        <v>Affichage de l'ordre de combat</v>
       </c>
       <c r="D27" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E27" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E27)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G27)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E27)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G27))</f>
@@ -13418,11 +13939,11 @@
       <c r="I27" s="117"/>
       <c r="M27" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13430,22 +13951,22 @@
       </c>
       <c r="P27" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="8"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="50" t="str">
+      <c r="B28" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B27)&lt;&gt;0,'Sprint 1 - Planification'!B27,"")</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="C28" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C27)&lt;&gt;0,'Sprint 1 - Planification'!C27,"")</f>
-        <v/>
+        <v>permettre aux combattants de finir le tour</v>
       </c>
       <c r="D28" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H27)&lt;&gt;0,'Sprint 1 - Planification'!H27,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E28" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E28)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G28)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E28)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G28))</f>
@@ -13460,11 +13981,11 @@
       <c r="I28" s="114"/>
       <c r="M28" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13472,22 +13993,22 @@
       </c>
       <c r="P28" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="8"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="53" t="str">
+      <c r="B29" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B28)&lt;&gt;0,'Sprint 1 - Planification'!B28,"")</f>
-        <v/>
+        <v>21</v>
       </c>
       <c r="C29" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C28)&lt;&gt;0,'Sprint 1 - Planification'!C28,"")</f>
-        <v/>
+        <v>permettre aux combattants de se deplacer</v>
       </c>
       <c r="D29" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H28)&lt;&gt;0,'Sprint 1 - Planification'!H28,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E29" s="74" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E29)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G29)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E29)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G29))</f>
@@ -13502,11 +14023,11 @@
       <c r="I29" s="117"/>
       <c r="M29" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13514,22 +14035,22 @@
       </c>
       <c r="P29" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="8"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="50" t="str">
+      <c r="B30" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B29)&lt;&gt;0,'Sprint 1 - Planification'!B29,"")</f>
-        <v/>
+        <v>22</v>
       </c>
       <c r="C30" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C29)&lt;&gt;0,'Sprint 1 - Planification'!C29,"")</f>
-        <v/>
+        <v>permettre aux combatants d'effectuer des attaques normales</v>
       </c>
       <c r="D30" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H29)&lt;&gt;0,'Sprint 1 - Planification'!H29,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E30" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E30)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G30)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E30)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G30))</f>
@@ -13544,11 +14065,11 @@
       <c r="I30" s="114"/>
       <c r="M30" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13556,22 +14077,22 @@
       </c>
       <c r="P30" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="8"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="str">
+      <c r="B31" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B30)&lt;&gt;0,'Sprint 1 - Planification'!B30,"")</f>
-        <v/>
+        <v>23</v>
       </c>
       <c r="C31" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C30)&lt;&gt;0,'Sprint 1 - Planification'!C30,"")</f>
-        <v/>
+        <v>permettre aux combatants de lancer des sorts</v>
       </c>
       <c r="D31" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H30)&lt;&gt;0,'Sprint 1 - Planification'!H30,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E31" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E31)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G31)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E31)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G31))</f>
@@ -13586,11 +14107,11 @@
       <c r="I31" s="117"/>
       <c r="M31" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13598,22 +14119,22 @@
       </c>
       <c r="P31" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="8"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="50" t="str">
+      <c r="B32" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B31)&lt;&gt;0,'Sprint 1 - Planification'!B31,"")</f>
-        <v/>
+        <v>24</v>
       </c>
       <c r="C32" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C31)&lt;&gt;0,'Sprint 1 - Planification'!C31,"")</f>
-        <v/>
+        <v>permettre aux combatants d'utiliser des items en combat</v>
       </c>
       <c r="D32" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H31)&lt;&gt;0,'Sprint 1 - Planification'!H31,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E32" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E32)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G32)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E32)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G32))</f>
@@ -13628,11 +14149,11 @@
       <c r="I32" s="114"/>
       <c r="M32" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13640,22 +14161,22 @@
       </c>
       <c r="P32" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="8"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="53" t="str">
+      <c r="B33" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B32)&lt;&gt;0,'Sprint 1 - Planification'!B32,"")</f>
-        <v/>
+        <v>25</v>
       </c>
       <c r="C33" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C32)&lt;&gt;0,'Sprint 1 - Planification'!C32,"")</f>
-        <v/>
+        <v>gestion de la morts des combattants</v>
       </c>
       <c r="D33" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H32)&lt;&gt;0,'Sprint 1 - Planification'!H32,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E33" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E33)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G33)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E33)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G33))</f>
@@ -13670,11 +14191,11 @@
       <c r="I33" s="117"/>
       <c r="M33" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13682,22 +14203,22 @@
       </c>
       <c r="P33" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="8"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="50" t="str">
+      <c r="B34" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B33)&lt;&gt;0,'Sprint 1 - Planification'!B33,"")</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="C34" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C33)&lt;&gt;0,'Sprint 1 - Planification'!C33,"")</f>
-        <v/>
+        <v>recuperation de l'experience / items a la fin du combat</v>
       </c>
       <c r="D34" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H33)&lt;&gt;0,'Sprint 1 - Planification'!H33,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E34" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E34)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G34)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E34)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G34))</f>
@@ -13712,11 +14233,11 @@
       <c r="I34" s="114"/>
       <c r="M34" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13724,22 +14245,22 @@
       </c>
       <c r="P34" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="8"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="53" t="str">
+      <c r="B35" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B34)&lt;&gt;0,'Sprint 1 - Planification'!B34,"")</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="C35" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C34)&lt;&gt;0,'Sprint 1 - Planification'!C34,"")</f>
-        <v/>
+        <v>sauvegarder le jeu</v>
       </c>
       <c r="D35" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H34)&lt;&gt;0,'Sprint 1 - Planification'!H34,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E35" s="74" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E35)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G35)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E35)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G35))</f>
@@ -13754,11 +14275,11 @@
       <c r="I35" s="117"/>
       <c r="M35" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13766,22 +14287,22 @@
       </c>
       <c r="P35" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="8"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="50" t="str">
+      <c r="B36" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B35)&lt;&gt;0,'Sprint 1 - Planification'!B35,"")</f>
-        <v/>
+        <v>28</v>
       </c>
       <c r="C36" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C35)&lt;&gt;0,'Sprint 1 - Planification'!C35,"")</f>
-        <v/>
+        <v>charger une parte sauvegarder</v>
       </c>
       <c r="D36" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H35)&lt;&gt;0,'Sprint 1 - Planification'!H35,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E36" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E36)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G36)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E36)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G36))</f>
@@ -13796,11 +14317,11 @@
       <c r="I36" s="114"/>
       <c r="M36" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13808,22 +14329,22 @@
       </c>
       <c r="P36" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="8"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="53" t="str">
+      <c r="B37" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B36)&lt;&gt;0,'Sprint 1 - Planification'!B36,"")</f>
-        <v/>
+        <v>29</v>
       </c>
       <c r="C37" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C36)&lt;&gt;0,'Sprint 1 - Planification'!C36,"")</f>
-        <v/>
+        <v>utilisation de la souris pour selectionner des elements</v>
       </c>
       <c r="D37" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H36)&lt;&gt;0,'Sprint 1 - Planification'!H36,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E37" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E37)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G37)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E37)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G37))</f>
@@ -13838,11 +14359,11 @@
       <c r="I37" s="117"/>
       <c r="M37" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13850,22 +14371,22 @@
       </c>
       <c r="P37" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="8"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="50" t="str">
+      <c r="B38" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B37)&lt;&gt;0,'Sprint 1 - Planification'!B37,"")</f>
-        <v/>
+        <v>30</v>
       </c>
       <c r="C38" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C37)&lt;&gt;0,'Sprint 1 - Planification'!C37,"")</f>
-        <v/>
+        <v>implantation d'un système de quetes</v>
       </c>
       <c r="D38" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H37)&lt;&gt;0,'Sprint 1 - Planification'!H37,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E38" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E38)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G38)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E38)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G38))</f>
@@ -13880,11 +14401,11 @@
       <c r="I38" s="114"/>
       <c r="M38" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13892,22 +14413,22 @@
       </c>
       <c r="P38" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="8"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="53" t="str">
+      <c r="B39" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B38)&lt;&gt;0,'Sprint 1 - Planification'!B38,"")</f>
-        <v/>
+        <v>31</v>
       </c>
       <c r="C39" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C38)&lt;&gt;0,'Sprint 1 - Planification'!C38,"")</f>
-        <v/>
+        <v>creation d'une IA pour les ennemis</v>
       </c>
       <c r="D39" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H38)&lt;&gt;0,'Sprint 1 - Planification'!H38,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E39" s="75" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E39)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G39)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E39)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G39))</f>
@@ -13922,11 +14443,11 @@
       <c r="I39" s="117"/>
       <c r="M39" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13934,22 +14455,22 @@
       </c>
       <c r="P39" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="8"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="50" t="str">
+      <c r="B40" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B39)&lt;&gt;0,'Sprint 1 - Planification'!B39,"")</f>
-        <v/>
+        <v>32</v>
       </c>
       <c r="C40" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C39)&lt;&gt;0,'Sprint 1 - Planification'!C39,"")</f>
-        <v/>
+        <v>creation d'une mini-map</v>
       </c>
       <c r="D40" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H39)&lt;&gt;0,'Sprint 1 - Planification'!H39,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E40" s="73" t="str">
         <f>IF(_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E40)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G40)=0,"",_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E40)+_xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G40))</f>
@@ -13964,11 +14485,11 @@
       <c r="I40" s="114"/>
       <c r="M40" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13976,7 +14497,7 @@
       </c>
       <c r="P40" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="8"/>
     </row>
@@ -14109,11 +14630,11 @@
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -14121,21 +14642,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>8 champs</v>
+        <v>56 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -14258,7 +14779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
@@ -14278,7 +14799,7 @@
     <row r="1" spans="2:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
@@ -14291,7 +14812,7 @@
     </row>
     <row r="3" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="88"/>
       <c r="D3" s="88"/>
@@ -14307,7 +14828,7 @@
     </row>
     <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="89"/>
@@ -14331,7 +14852,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -14346,7 +14867,7 @@
     </row>
     <row r="8" spans="2:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B8" s="91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="95">
         <f>L8</f>
@@ -14354,15 +14875,15 @@
       </c>
       <c r="D8" s="96">
         <f>M8</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E8" s="97">
         <f>N8</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F8" s="101">
         <f>O8</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -14372,15 +14893,15 @@
       </c>
       <c r="M8" s="1">
         <f>'Sprint 1 - Planification'!AJ18</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N8" s="1">
         <f>'Sprint 1 - Planification'!AJ19</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O8" s="1">
         <f>SUM(L8:N8)</f>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -14389,79 +14910,79 @@
     </row>
     <row r="9" spans="2:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B9" s="92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="98" t="str">
         <f t="shared" ref="C9:F10" si="0">DAY(L9)*24+HOUR(L9)&amp;"h"&amp;TEXT(MINUTE(L9),"00")</f>
-        <v>12h30</v>
+        <v>11h30</v>
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>29h30</v>
       </c>
       <c r="E9" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>47h00</v>
       </c>
       <c r="F9" s="102" t="str">
         <f t="shared" si="0"/>
-        <v>12h30</v>
+        <v>88h00</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="L9" s="1">
         <f>'Sprint 1 - Planification'!AD17</f>
-        <v>0.5208333333333337</v>
+        <v>0.47916666666666663</v>
       </c>
       <c r="M9" s="1">
         <f>'Sprint 1 - Planification'!AD18</f>
-        <v>0</v>
+        <v>1.2291666666666672</v>
       </c>
       <c r="N9" s="1">
         <f>'Sprint 1 - Planification'!AD19</f>
-        <v>0</v>
+        <v>1.9583333333333335</v>
       </c>
       <c r="O9" s="1">
         <f>SUM(L9:N9)</f>
-        <v>0.5208333333333337</v>
+        <v>3.6666666666666674</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ref="Q9:S10" si="1">DAY(L9)*24+HOUR(L9)+MINUTE(L9)/60</f>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V9" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Essentielle")</f>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y9" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B10" s="91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="95" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>10h15</v>
       </c>
       <c r="D10" s="96" t="str">
         <f t="shared" si="0"/>
@@ -14473,13 +14994,13 @@
       </c>
       <c r="F10" s="101" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>10h15</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="L10" s="1">
         <f>'Sprint 1 - Bilan'!T8</f>
-        <v>0</v>
+        <v>0.42708333333333326</v>
       </c>
       <c r="M10" s="1">
         <f>'Sprint 2 - Bilan'!V9</f>
@@ -14491,14 +15012,14 @@
       </c>
       <c r="O10" s="1">
         <f>SUM(L10:N10)</f>
-        <v>0</v>
+        <v>0.42708333333333326</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="1"/>
@@ -14509,68 +15030,68 @@
         <v>0</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V10" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Optionnelle")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y10" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,2)</f>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:25" s="2" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="103" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="104">
         <f>L11</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" s="105">
         <f>M11</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E11" s="106">
         <f>N11</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F11" s="107">
         <f>O11</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="L11" s="1">
         <f>'Sprint 1 - Bilan'!T15</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
         <f>'Sprint 2 - Bilan'!V16</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="X11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y11" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,3)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:25" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -14705,7 +15226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AQ41" sqref="AQ41"/>
     </sheetView>
   </sheetViews>
@@ -14724,7 +15245,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="138"/>
       <c r="D2" s="138"/>
@@ -14735,7 +15256,7 @@
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="81"/>
@@ -14755,7 +15276,7 @@
     </row>
     <row r="5" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="83"/>
@@ -14768,7 +15289,7 @@
     <row r="7" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="1"/>
@@ -14779,7 +15300,7 @@
     <row r="8" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B8" s="84"/>
       <c r="D8" s="84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -14789,7 +15310,7 @@
     <row r="9" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="D9" s="84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -14807,7 +15328,7 @@
     <row r="11" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="1"/>
@@ -14818,7 +15339,7 @@
     <row r="12" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="D12" s="84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -14828,7 +15349,7 @@
     <row r="13" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="D13" s="84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -14838,7 +15359,7 @@
     <row r="14" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="D14" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -14848,7 +15369,7 @@
     <row r="15" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="D15" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -14858,7 +15379,7 @@
     <row r="16" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="D16" s="84" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -14868,7 +15389,7 @@
     <row r="17" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="D17" s="84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -14878,7 +15399,7 @@
     <row r="18" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="D18" s="84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -14887,7 +15408,7 @@
     </row>
     <row r="20" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="83"/>
@@ -14900,7 +15421,7 @@
     <row r="22" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="84"/>
       <c r="E22" s="1"/>
@@ -14911,7 +15432,7 @@
     <row r="23" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B23" s="84"/>
       <c r="D23" s="84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -14921,7 +15442,7 @@
     <row r="24" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="D24" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -14931,7 +15452,7 @@
     <row r="25" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="D25" s="84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -14948,7 +15469,7 @@
     </row>
     <row r="28" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="83"/>
@@ -14961,7 +15482,7 @@
     <row r="30" spans="2:8" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="84"/>
       <c r="E30" s="1"/>
@@ -14979,7 +15500,7 @@
     </row>
     <row r="33" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="83"/>
@@ -14992,7 +15513,7 @@
     <row r="35" spans="2:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="139" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="139"/>
       <c r="E35" s="139"/>

--- a/Doc/B65_-_Hiver_2017_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
+++ b/Doc/B65_-_Hiver_2017_-_Outil_de_planification_et_de_suivi_de_projet.xlsx
@@ -2643,7 +2643,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2962,7 +2961,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3069,7 +3067,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3382,7 +3379,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3489,7 +3485,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3817,7 +3812,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3924,7 +3918,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4281,7 +4274,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
